--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemsodotochuc(mobile_ver1.0).xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemsodotochuc(mobile_ver1.0).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF21A4B-D6D1-448A-8C5C-DC3CB2B04415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDFD802-3F8B-400A-BA17-6C64C83D91CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="120">
   <si>
     <t>Author</t>
   </si>
@@ -491,7 +491,7 @@
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">fail </t>
+    <t xml:space="preserve">pass </t>
   </si>
 </sst>
 </file>
@@ -1288,6 +1288,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,27 +1333,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1393,6 +1393,60 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1401,60 +1455,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1795,31 +1795,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1894,21 +1894,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1917,54 +1917,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="60"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1991,8 +1991,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2293,9 +2293,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2313,17 +2313,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2362,33 +2362,33 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89">
+      <c r="A5" s="83">
         <v>1</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="92" t="s">
         <v>73</v>
       </c>
       <c r="F5" s="45">
@@ -2401,16 +2401,16 @@
       <c r="I5" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="101" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="90"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="87"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="45">
         <v>2</v>
       </c>
@@ -2421,14 +2421,14 @@
       <c r="I6" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="84"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="88"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="45">
         <v>3</v>
       </c>
@@ -2439,22 +2439,22 @@
       <c r="I7" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="85"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89">
+      <c r="A8" s="83">
         <v>2</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="92" t="s">
         <v>82</v>
       </c>
       <c r="F8" s="45" t="s">
@@ -2467,16 +2467,16 @@
       <c r="I8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="83" t="s">
+      <c r="J8" s="101" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="87"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="45">
         <v>2</v>
       </c>
@@ -2487,14 +2487,14 @@
       <c r="I9" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="84"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="88"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="45">
         <v>3</v>
       </c>
@@ -2505,22 +2505,22 @@
       <c r="I10" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="85"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89">
+      <c r="A11" s="83">
         <v>3</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="92" t="s">
         <v>82</v>
       </c>
       <c r="F11" s="45">
@@ -2533,16 +2533,16 @@
       <c r="I11" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="83" t="s">
+      <c r="J11" s="101" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="87"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="45">
         <v>2</v>
       </c>
@@ -2553,14 +2553,14 @@
       <c r="I12" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="84"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="88"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="45">
         <v>3</v>
       </c>
@@ -2571,22 +2571,22 @@
       <c r="I13" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="85"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89">
+      <c r="A14" s="83">
         <v>4</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="92" t="s">
         <v>85</v>
       </c>
       <c r="F14" s="45">
@@ -2599,16 +2599,16 @@
       <c r="I14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="83" t="s">
+      <c r="J14" s="101" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="87"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="45">
         <v>2</v>
       </c>
@@ -2619,14 +2619,14 @@
       <c r="I15" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="84"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="87"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="45">
         <v>3</v>
       </c>
@@ -2637,14 +2637,14 @@
       <c r="I16" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="84"/>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:10" s="44" customFormat="1" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="88"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="45">
         <v>4</v>
       </c>
@@ -2655,20 +2655,20 @@
       <c r="I17" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="85"/>
+      <c r="J17" s="103"/>
     </row>
     <row r="18" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89">
+      <c r="A18" s="83">
         <v>5</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="92" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="92" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="45">
@@ -2681,16 +2681,16 @@
       <c r="I18" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="83" t="s">
+      <c r="J18" s="101" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="87"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="45">
         <v>2</v>
       </c>
@@ -2701,14 +2701,14 @@
       <c r="I19" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="84"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="90"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="87"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="45">
         <v>3</v>
       </c>
@@ -2719,14 +2719,14 @@
       <c r="I20" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="84"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:10" s="44" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="91"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="88"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="45">
         <v>4</v>
       </c>
@@ -2737,20 +2737,20 @@
       <c r="I21" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="85"/>
+      <c r="J21" s="103"/>
     </row>
     <row r="22" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89">
+      <c r="A22" s="83">
         <v>6</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="92" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="92" t="s">
         <v>91</v>
       </c>
       <c r="F22" s="45">
@@ -2763,16 +2763,16 @@
       <c r="I22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="83" t="s">
+      <c r="J22" s="101" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="87"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="45">
         <v>2</v>
       </c>
@@ -2783,14 +2783,14 @@
       <c r="I23" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="84"/>
+      <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="90"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="87"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="45">
         <v>3</v>
       </c>
@@ -2801,14 +2801,14 @@
       <c r="I24" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="84"/>
+      <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:10" s="44" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="91"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="88"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="94"/>
       <c r="F25" s="45">
         <v>4</v>
       </c>
@@ -2819,20 +2819,20 @@
       <c r="I25" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="J25" s="85"/>
+      <c r="J25" s="103"/>
     </row>
     <row r="26" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="89">
+      <c r="A26" s="83">
         <v>7</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="92" t="s">
+      <c r="B26" s="87"/>
+      <c r="C26" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E26" s="92" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="45">
@@ -2845,16 +2845,16 @@
       <c r="I26" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="83" t="s">
+      <c r="J26" s="101" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="87"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="45">
         <v>2</v>
       </c>
@@ -2865,14 +2865,14 @@
       <c r="I27" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="84"/>
+      <c r="J27" s="102"/>
     </row>
     <row r="28" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="87"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="45">
         <v>3</v>
       </c>
@@ -2883,14 +2883,14 @@
       <c r="I28" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J28" s="84"/>
+      <c r="J28" s="102"/>
     </row>
     <row r="29" spans="1:10" s="44" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="88"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="45">
         <v>4</v>
       </c>
@@ -2901,22 +2901,22 @@
       <c r="I29" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="85"/>
+      <c r="J29" s="103"/>
     </row>
     <row r="30" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="89">
+      <c r="A30" s="83">
         <v>8</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="D30" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="86" t="s">
+      <c r="E30" s="92" t="s">
         <v>85</v>
       </c>
       <c r="F30" s="45">
@@ -2929,16 +2929,16 @@
       <c r="I30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="83" t="s">
+      <c r="J30" s="101" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="90"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="87"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="45">
         <v>2</v>
       </c>
@@ -2949,14 +2949,14 @@
       <c r="I31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="84"/>
+      <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="90"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="87"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="45">
         <v>3</v>
       </c>
@@ -2967,14 +2967,14 @@
       <c r="I32" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="84"/>
+      <c r="J32" s="102"/>
     </row>
     <row r="33" spans="1:10" s="44" customFormat="1" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="91"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="88"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="94"/>
       <c r="F33" s="45">
         <v>4</v>
       </c>
@@ -2985,20 +2985,20 @@
       <c r="I33" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J33" s="85"/>
+      <c r="J33" s="103"/>
     </row>
     <row r="34" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="89">
+      <c r="A34" s="83">
         <v>9</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="92" t="s">
+      <c r="B34" s="87"/>
+      <c r="C34" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="D34" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="92" t="s">
         <v>87</v>
       </c>
       <c r="F34" s="45">
@@ -3011,14 +3011,16 @@
       <c r="I34" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J34" s="83"/>
+      <c r="J34" s="101" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="35" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="90"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="87"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="45">
         <v>2</v>
       </c>
@@ -3029,14 +3031,14 @@
       <c r="I35" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J35" s="84"/>
+      <c r="J35" s="102"/>
     </row>
     <row r="36" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="90"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="87"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="45">
         <v>3</v>
       </c>
@@ -3047,14 +3049,14 @@
       <c r="I36" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="84"/>
+      <c r="J36" s="102"/>
     </row>
     <row r="37" spans="1:10" s="44" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="91"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="88"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="94"/>
       <c r="F37" s="45">
         <v>4</v>
       </c>
@@ -3065,20 +3067,20 @@
       <c r="I37" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J37" s="85"/>
+      <c r="J37" s="103"/>
     </row>
     <row r="38" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="89">
+      <c r="A38" s="83">
         <v>10</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="92" t="s">
+      <c r="B38" s="87"/>
+      <c r="C38" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="95" t="s">
+      <c r="D38" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="86" t="s">
+      <c r="E38" s="92" t="s">
         <v>91</v>
       </c>
       <c r="F38" s="45">
@@ -3091,14 +3093,16 @@
       <c r="I38" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J38" s="83"/>
+      <c r="J38" s="101" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="39" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="90"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="87"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="93"/>
       <c r="F39" s="45">
         <v>2</v>
       </c>
@@ -3109,14 +3113,14 @@
       <c r="I39" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J39" s="84"/>
+      <c r="J39" s="102"/>
     </row>
     <row r="40" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="90"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="87"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="93"/>
       <c r="F40" s="45">
         <v>3</v>
       </c>
@@ -3127,14 +3131,14 @@
       <c r="I40" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J40" s="84"/>
+      <c r="J40" s="102"/>
     </row>
     <row r="41" spans="1:10" s="44" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="91"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="88"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="94"/>
       <c r="F41" s="45">
         <v>4</v>
       </c>
@@ -3145,20 +3149,20 @@
       <c r="I41" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J41" s="85"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="89">
+      <c r="A42" s="83">
         <v>11</v>
       </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="92" t="s">
+      <c r="B42" s="87"/>
+      <c r="C42" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="95" t="s">
+      <c r="D42" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="86" t="s">
+      <c r="E42" s="92" t="s">
         <v>107</v>
       </c>
       <c r="F42" s="45">
@@ -3171,16 +3175,16 @@
       <c r="I42" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="83" t="s">
+      <c r="J42" s="101" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="90"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="87"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="93"/>
       <c r="F43" s="45">
         <v>2</v>
       </c>
@@ -3191,14 +3195,14 @@
       <c r="I43" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J43" s="84"/>
+      <c r="J43" s="102"/>
     </row>
     <row r="44" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="90"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="87"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="93"/>
       <c r="F44" s="45">
         <v>3</v>
       </c>
@@ -3209,14 +3213,14 @@
       <c r="I44" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="84"/>
+      <c r="J44" s="102"/>
     </row>
     <row r="45" spans="1:10" s="44" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="91"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="88"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="94"/>
       <c r="F45" s="45">
         <v>4</v>
       </c>
@@ -3227,22 +3231,22 @@
       <c r="I45" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="85"/>
+      <c r="J45" s="103"/>
     </row>
     <row r="46" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="89">
+      <c r="A46" s="83">
         <v>4</v>
       </c>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="92" t="s">
+      <c r="C46" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="95" t="s">
+      <c r="D46" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="86" t="s">
+      <c r="E46" s="92" t="s">
         <v>108</v>
       </c>
       <c r="F46" s="45">
@@ -3255,16 +3259,16 @@
       <c r="I46" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J46" s="83" t="s">
-        <v>118</v>
+      <c r="J46" s="101" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="90"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="87"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="93"/>
       <c r="F47" s="45">
         <v>2</v>
       </c>
@@ -3275,14 +3279,14 @@
       <c r="I47" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J47" s="84"/>
+      <c r="J47" s="102"/>
     </row>
     <row r="48" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="90"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="87"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="93"/>
       <c r="F48" s="45">
         <v>3</v>
       </c>
@@ -3293,14 +3297,14 @@
       <c r="I48" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J48" s="84"/>
+      <c r="J48" s="102"/>
     </row>
     <row r="49" spans="1:10" s="44" customFormat="1" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="91"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="88"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="94"/>
       <c r="F49" s="45">
         <v>4</v>
       </c>
@@ -3311,20 +3315,20 @@
       <c r="I49" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="J49" s="85"/>
+      <c r="J49" s="103"/>
     </row>
     <row r="50" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="89">
+      <c r="A50" s="83">
         <v>5</v>
       </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="92" t="s">
+      <c r="B50" s="87"/>
+      <c r="C50" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="95" t="s">
+      <c r="D50" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="86" t="s">
+      <c r="E50" s="92" t="s">
         <v>109</v>
       </c>
       <c r="F50" s="45">
@@ -3337,16 +3341,16 @@
       <c r="I50" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="83" t="s">
-        <v>118</v>
+      <c r="J50" s="101" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="90"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="87"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="93"/>
       <c r="F51" s="45">
         <v>2</v>
       </c>
@@ -3357,14 +3361,14 @@
       <c r="I51" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J51" s="84"/>
+      <c r="J51" s="102"/>
     </row>
     <row r="52" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="90"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="87"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="93"/>
       <c r="F52" s="45">
         <v>3</v>
       </c>
@@ -3375,14 +3379,14 @@
       <c r="I52" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J52" s="84"/>
+      <c r="J52" s="102"/>
     </row>
     <row r="53" spans="1:10" s="44" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="91"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="88"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="94"/>
       <c r="F53" s="45">
         <v>4</v>
       </c>
@@ -3393,20 +3397,20 @@
       <c r="I53" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="J53" s="85"/>
+      <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="89">
+      <c r="A54" s="83">
         <v>6</v>
       </c>
-      <c r="B54" s="93"/>
-      <c r="C54" s="92" t="s">
+      <c r="B54" s="87"/>
+      <c r="C54" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="95" t="s">
+      <c r="D54" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="E54" s="86" t="s">
+      <c r="E54" s="92" t="s">
         <v>110</v>
       </c>
       <c r="F54" s="45">
@@ -3419,16 +3423,16 @@
       <c r="I54" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J54" s="83" t="s">
-        <v>118</v>
+      <c r="J54" s="101" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="90"/>
-      <c r="B55" s="93"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="87"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="93"/>
       <c r="F55" s="45">
         <v>2</v>
       </c>
@@ -3439,14 +3443,14 @@
       <c r="I55" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J55" s="84"/>
+      <c r="J55" s="102"/>
     </row>
     <row r="56" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="90"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="87"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="93"/>
       <c r="F56" s="45">
         <v>3</v>
       </c>
@@ -3457,14 +3461,14 @@
       <c r="I56" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J56" s="84"/>
+      <c r="J56" s="102"/>
     </row>
     <row r="57" spans="1:10" s="44" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="91"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="88"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="94"/>
       <c r="F57" s="45">
         <v>4</v>
       </c>
@@ -3475,20 +3479,20 @@
       <c r="I57" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="J57" s="85"/>
+      <c r="J57" s="103"/>
     </row>
     <row r="58" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="89">
+      <c r="A58" s="83">
         <v>7</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="92" t="s">
+      <c r="B58" s="87"/>
+      <c r="C58" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="95" t="s">
+      <c r="D58" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="86" t="s">
+      <c r="E58" s="92" t="s">
         <v>111</v>
       </c>
       <c r="F58" s="45">
@@ -3501,16 +3505,16 @@
       <c r="I58" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J58" s="83" t="s">
+      <c r="J58" s="101" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="90"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="87"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="93"/>
       <c r="F59" s="45">
         <v>2</v>
       </c>
@@ -3521,14 +3525,14 @@
       <c r="I59" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J59" s="84"/>
+      <c r="J59" s="102"/>
     </row>
     <row r="60" spans="1:10" s="44" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="90"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="87"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="93"/>
       <c r="F60" s="45">
         <v>3</v>
       </c>
@@ -3539,14 +3543,14 @@
       <c r="I60" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J60" s="84"/>
-    </row>
-    <row r="61" spans="1:10" s="44" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="91"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="88"/>
+      <c r="J60" s="102"/>
+    </row>
+    <row r="61" spans="1:10" s="44" customFormat="1" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="85"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="94"/>
       <c r="F61" s="45">
         <v>4</v>
       </c>
@@ -3557,39 +3561,48 @@
       <c r="I61" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="J61" s="85"/>
+      <c r="J61" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B61"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="B30:B45"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="B14:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
@@ -3606,44 +3619,35 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="B30:B45"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="B14:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="J58:J61"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
